--- a/data/rank3album.xlsx
+++ b/data/rank3album.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/WangsAlbum/wangsalbum3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920E5D4-5A50-4649-86FC-2055E74289F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EE18E-3497-4F46-94D1-8447C706D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27520" windowHeight="16880" xr2:uid="{FD2DDA74-EC73-B14A-91B5-A165B1B3A8DF}"/>
+    <workbookView xWindow="1920" yWindow="-26200" windowWidth="27520" windowHeight="16880" xr2:uid="{FD2DDA74-EC73-B14A-91B5-A165B1B3A8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1063">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3217,6 +3218,42 @@
   </si>
   <si>
     <t>Fairmont旅館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建築</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3604,21 +3641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BE7EF2-910D-9B4B-9CB4-1DC3E246FD86}">
-  <dimension ref="A1:E347"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G325" sqref="G325"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3634,8 +3671,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3651,8 +3694,14 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3668,8 +3717,14 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>353</v>
       </c>
@@ -3685,8 +3740,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -3702,8 +3763,14 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -3719,8 +3786,14 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -3736,8 +3809,14 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -3753,8 +3832,14 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -3770,8 +3855,14 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -3787,8 +3878,14 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -3804,8 +3901,14 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -3821,8 +3924,14 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>362</v>
       </c>
@@ -3838,8 +3947,14 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -3855,8 +3970,14 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -3872,8 +3993,14 @@
       <c r="E15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>365</v>
       </c>
@@ -3889,8 +4016,14 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>366</v>
       </c>
@@ -3906,8 +4039,14 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>367</v>
       </c>
@@ -3923,8 +4062,14 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -3940,8 +4085,14 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -3957,8 +4108,14 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>370</v>
       </c>
@@ -3974,8 +4131,14 @@
       <c r="E21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>371</v>
       </c>
@@ -3991,8 +4154,14 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -4008,8 +4177,14 @@
       <c r="E23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -4025,8 +4200,14 @@
       <c r="E24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>374</v>
       </c>
@@ -4042,8 +4223,14 @@
       <c r="E25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>375</v>
       </c>
@@ -4059,8 +4246,14 @@
       <c r="E26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -4076,8 +4269,14 @@
       <c r="E27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>377</v>
       </c>
@@ -4093,8 +4292,14 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>378</v>
       </c>
@@ -4110,8 +4315,14 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>379</v>
       </c>
@@ -4127,8 +4338,14 @@
       <c r="E30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -4144,8 +4361,14 @@
       <c r="E31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -4161,8 +4384,14 @@
       <c r="E32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>382</v>
       </c>
@@ -4178,8 +4407,14 @@
       <c r="E33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>383</v>
       </c>
@@ -4195,8 +4430,14 @@
       <c r="E34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>384</v>
       </c>
@@ -4212,8 +4453,14 @@
       <c r="E35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>385</v>
       </c>
@@ -4229,8 +4476,14 @@
       <c r="E36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>386</v>
       </c>
@@ -4246,8 +4499,14 @@
       <c r="E37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>387</v>
       </c>
@@ -4263,8 +4522,14 @@
       <c r="E38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>388</v>
       </c>
@@ -4280,8 +4545,14 @@
       <c r="E39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -4297,8 +4568,14 @@
       <c r="E40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>390</v>
       </c>
@@ -4314,8 +4591,14 @@
       <c r="E41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>391</v>
       </c>
@@ -4331,8 +4614,14 @@
       <c r="E42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>392</v>
       </c>
@@ -4348,8 +4637,14 @@
       <c r="E43" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -4365,8 +4660,14 @@
       <c r="E44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>394</v>
       </c>
@@ -4382,8 +4683,14 @@
       <c r="E45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>395</v>
       </c>
@@ -4399,8 +4706,14 @@
       <c r="E46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>396</v>
       </c>
@@ -4416,8 +4729,14 @@
       <c r="E47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>397</v>
       </c>
@@ -4433,8 +4752,14 @@
       <c r="E48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>398</v>
       </c>
@@ -4450,8 +4775,14 @@
       <c r="E49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>399</v>
       </c>
@@ -4467,8 +4798,14 @@
       <c r="E50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>400</v>
       </c>
@@ -4484,8 +4821,14 @@
       <c r="E51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>401</v>
       </c>
@@ -4501,8 +4844,14 @@
       <c r="E52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>402</v>
       </c>
@@ -4518,8 +4867,14 @@
       <c r="E53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>403</v>
       </c>
@@ -4535,8 +4890,14 @@
       <c r="E54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -4552,8 +4913,14 @@
       <c r="E55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>405</v>
       </c>
@@ -4569,8 +4936,14 @@
       <c r="E56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>406</v>
       </c>
@@ -4586,8 +4959,14 @@
       <c r="E57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>407</v>
       </c>
@@ -4603,8 +4982,14 @@
       <c r="E58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>408</v>
       </c>
@@ -4620,8 +5005,14 @@
       <c r="E59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>409</v>
       </c>
@@ -4637,8 +5028,14 @@
       <c r="E60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>410</v>
       </c>
@@ -4654,8 +5051,14 @@
       <c r="E61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>411</v>
       </c>
@@ -4671,8 +5074,14 @@
       <c r="E62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>412</v>
       </c>
@@ -4688,8 +5097,14 @@
       <c r="E63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -4705,8 +5120,14 @@
       <c r="E64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>414</v>
       </c>
@@ -4722,8 +5143,14 @@
       <c r="E65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>415</v>
       </c>
@@ -4739,8 +5166,14 @@
       <c r="E66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>416</v>
       </c>
@@ -4756,8 +5189,14 @@
       <c r="E67" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>417</v>
       </c>
@@ -4773,8 +5212,14 @@
       <c r="E68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>418</v>
       </c>
@@ -4790,8 +5235,14 @@
       <c r="E69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>419</v>
       </c>
@@ -4807,8 +5258,14 @@
       <c r="E70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>420</v>
       </c>
@@ -4824,8 +5281,14 @@
       <c r="E71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -4841,8 +5304,14 @@
       <c r="E72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>422</v>
       </c>
@@ -4858,8 +5327,14 @@
       <c r="E73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -4875,8 +5350,14 @@
       <c r="E74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>424</v>
       </c>
@@ -4892,8 +5373,14 @@
       <c r="E75" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>425</v>
       </c>
@@ -4909,8 +5396,14 @@
       <c r="E76" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>426</v>
       </c>
@@ -4926,8 +5419,14 @@
       <c r="E77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>427</v>
       </c>
@@ -4943,8 +5442,14 @@
       <c r="E78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>428</v>
       </c>
@@ -4960,8 +5465,14 @@
       <c r="E79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>429</v>
       </c>
@@ -4977,8 +5488,14 @@
       <c r="E80" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>430</v>
       </c>
@@ -4994,8 +5511,14 @@
       <c r="E81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>431</v>
       </c>
@@ -5011,8 +5534,14 @@
       <c r="E82" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>432</v>
       </c>
@@ -5028,8 +5557,14 @@
       <c r="E83" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>433</v>
       </c>
@@ -5045,8 +5580,14 @@
       <c r="E84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>434</v>
       </c>
@@ -5062,8 +5603,14 @@
       <c r="E85" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>435</v>
       </c>
@@ -5079,8 +5626,14 @@
       <c r="E86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>436</v>
       </c>
@@ -5096,8 +5649,14 @@
       <c r="E87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>437</v>
       </c>
@@ -5113,8 +5672,14 @@
       <c r="E88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>438</v>
       </c>
@@ -5130,8 +5695,14 @@
       <c r="E89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>439</v>
       </c>
@@ -5147,8 +5718,14 @@
       <c r="E90" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>440</v>
       </c>
@@ -5164,8 +5741,14 @@
       <c r="E91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>441</v>
       </c>
@@ -5181,8 +5764,14 @@
       <c r="E92" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>442</v>
       </c>
@@ -5198,8 +5787,14 @@
       <c r="E93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>443</v>
       </c>
@@ -5215,8 +5810,14 @@
       <c r="E94" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>444</v>
       </c>
@@ -5232,8 +5833,14 @@
       <c r="E95" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>445</v>
       </c>
@@ -5249,8 +5856,14 @@
       <c r="E96" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>446</v>
       </c>
@@ -5266,8 +5879,14 @@
       <c r="E97" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>447</v>
       </c>
@@ -5283,8 +5902,14 @@
       <c r="E98" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>448</v>
       </c>
@@ -5300,8 +5925,14 @@
       <c r="E99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>449</v>
       </c>
@@ -5317,8 +5948,14 @@
       <c r="E100" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>450</v>
       </c>
@@ -5334,8 +5971,14 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>451</v>
       </c>
@@ -5351,8 +5994,14 @@
       <c r="E102" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>452</v>
       </c>
@@ -5368,8 +6017,14 @@
       <c r="E103" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>453</v>
       </c>
@@ -5385,8 +6040,14 @@
       <c r="E104" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>454</v>
       </c>
@@ -5402,8 +6063,14 @@
       <c r="E105" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>455</v>
       </c>
@@ -5419,8 +6086,14 @@
       <c r="E106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>456</v>
       </c>
@@ -5436,8 +6109,14 @@
       <c r="E107" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>457</v>
       </c>
@@ -5453,8 +6132,14 @@
       <c r="E108" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>458</v>
       </c>
@@ -5470,8 +6155,14 @@
       <c r="E109" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>459</v>
       </c>
@@ -5487,8 +6178,14 @@
       <c r="E110" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>460</v>
       </c>
@@ -5504,8 +6201,14 @@
       <c r="E111" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -5521,8 +6224,14 @@
       <c r="E112" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>462</v>
       </c>
@@ -5538,8 +6247,14 @@
       <c r="E113" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>463</v>
       </c>
@@ -5555,8 +6270,14 @@
       <c r="E114" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>464</v>
       </c>
@@ -5572,8 +6293,14 @@
       <c r="E115" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>465</v>
       </c>
@@ -5589,8 +6316,14 @@
       <c r="E116" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>466</v>
       </c>
@@ -5606,8 +6339,14 @@
       <c r="E117" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>467</v>
       </c>
@@ -5623,8 +6362,14 @@
       <c r="E118" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>468</v>
       </c>
@@ -5640,8 +6385,14 @@
       <c r="E119" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -5657,8 +6408,14 @@
       <c r="E120" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>470</v>
       </c>
@@ -5674,8 +6431,14 @@
       <c r="E121" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>471</v>
       </c>
@@ -5691,8 +6454,14 @@
       <c r="E122" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>472</v>
       </c>
@@ -5708,8 +6477,14 @@
       <c r="E123" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>473</v>
       </c>
@@ -5725,8 +6500,14 @@
       <c r="E124" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>474</v>
       </c>
@@ -5742,8 +6523,14 @@
       <c r="E125" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>475</v>
       </c>
@@ -5759,8 +6546,14 @@
       <c r="E126" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>476</v>
       </c>
@@ -5776,8 +6569,14 @@
       <c r="E127" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>477</v>
       </c>
@@ -5793,8 +6592,14 @@
       <c r="E128" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>478</v>
       </c>
@@ -5810,8 +6615,14 @@
       <c r="E129" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -5827,8 +6638,14 @@
       <c r="E130" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>480</v>
       </c>
@@ -5844,8 +6661,14 @@
       <c r="E131" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -5861,8 +6684,14 @@
       <c r="E132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>482</v>
       </c>
@@ -5878,8 +6707,14 @@
       <c r="E133" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>483</v>
       </c>
@@ -5895,8 +6730,14 @@
       <c r="E134" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>484</v>
       </c>
@@ -5912,8 +6753,14 @@
       <c r="E135" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>485</v>
       </c>
@@ -5929,8 +6776,14 @@
       <c r="E136" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>486</v>
       </c>
@@ -5946,8 +6799,14 @@
       <c r="E137" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>487</v>
       </c>
@@ -5963,8 +6822,14 @@
       <c r="E138" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>488</v>
       </c>
@@ -5980,8 +6845,14 @@
       <c r="E139" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>489</v>
       </c>
@@ -5997,8 +6868,14 @@
       <c r="E140" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>490</v>
       </c>
@@ -6014,8 +6891,14 @@
       <c r="E141" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>491</v>
       </c>
@@ -6031,8 +6914,14 @@
       <c r="E142" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>492</v>
       </c>
@@ -6048,8 +6937,14 @@
       <c r="E143" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>493</v>
       </c>
@@ -6065,8 +6960,14 @@
       <c r="E144" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>494</v>
       </c>
@@ -6082,8 +6983,14 @@
       <c r="E145" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>495</v>
       </c>
@@ -6099,8 +7006,14 @@
       <c r="E146" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>496</v>
       </c>
@@ -6116,8 +7029,14 @@
       <c r="E147" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>497</v>
       </c>
@@ -6133,8 +7052,14 @@
       <c r="E148" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>498</v>
       </c>
@@ -6150,8 +7075,14 @@
       <c r="E149" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>499</v>
       </c>
@@ -6167,8 +7098,14 @@
       <c r="E150" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>500</v>
       </c>
@@ -6184,8 +7121,14 @@
       <c r="E151" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>501</v>
       </c>
@@ -6201,8 +7144,14 @@
       <c r="E152" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>502</v>
       </c>
@@ -6218,8 +7167,14 @@
       <c r="E153" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>503</v>
       </c>
@@ -6235,8 +7190,14 @@
       <c r="E154" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>504</v>
       </c>
@@ -6252,8 +7213,14 @@
       <c r="E155" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>505</v>
       </c>
@@ -6269,8 +7236,14 @@
       <c r="E156" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>506</v>
       </c>
@@ -6286,8 +7259,14 @@
       <c r="E157" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>507</v>
       </c>
@@ -6303,8 +7282,14 @@
       <c r="E158" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>508</v>
       </c>
@@ -6320,8 +7305,14 @@
       <c r="E159" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>509</v>
       </c>
@@ -6337,8 +7328,14 @@
       <c r="E160" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>510</v>
       </c>
@@ -6354,8 +7351,14 @@
       <c r="E161" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>511</v>
       </c>
@@ -6371,8 +7374,14 @@
       <c r="E162" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>512</v>
       </c>
@@ -6388,8 +7397,14 @@
       <c r="E163" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>513</v>
       </c>
@@ -6405,8 +7420,14 @@
       <c r="E164" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>514</v>
       </c>
@@ -6422,8 +7443,14 @@
       <c r="E165" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>515</v>
       </c>
@@ -6439,8 +7466,14 @@
       <c r="E166" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>516</v>
       </c>
@@ -6456,8 +7489,14 @@
       <c r="E167" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>517</v>
       </c>
@@ -6473,8 +7512,14 @@
       <c r="E168" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>518</v>
       </c>
@@ -6490,8 +7535,14 @@
       <c r="E169" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>519</v>
       </c>
@@ -6507,8 +7558,14 @@
       <c r="E170" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -6524,8 +7581,14 @@
       <c r="E171" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>521</v>
       </c>
@@ -6541,8 +7604,14 @@
       <c r="E172" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>522</v>
       </c>
@@ -6558,8 +7627,14 @@
       <c r="E173" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>523</v>
       </c>
@@ -6575,8 +7650,14 @@
       <c r="E174" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>524</v>
       </c>
@@ -6592,8 +7673,14 @@
       <c r="E175" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>525</v>
       </c>
@@ -6609,8 +7696,14 @@
       <c r="E176" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>526</v>
       </c>
@@ -6626,8 +7719,14 @@
       <c r="E177" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>527</v>
       </c>
@@ -6643,8 +7742,14 @@
       <c r="E178" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>528</v>
       </c>
@@ -6660,8 +7765,14 @@
       <c r="E179" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>529</v>
       </c>
@@ -6677,8 +7788,14 @@
       <c r="E180" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>530</v>
       </c>
@@ -6694,8 +7811,14 @@
       <c r="E181" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>531</v>
       </c>
@@ -6711,8 +7834,14 @@
       <c r="E182" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>532</v>
       </c>
@@ -6728,8 +7857,14 @@
       <c r="E183" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>533</v>
       </c>
@@ -6745,8 +7880,14 @@
       <c r="E184" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>534</v>
       </c>
@@ -6762,8 +7903,14 @@
       <c r="E185" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>535</v>
       </c>
@@ -6779,8 +7926,14 @@
       <c r="E186" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>536</v>
       </c>
@@ -6796,8 +7949,14 @@
       <c r="E187" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>537</v>
       </c>
@@ -6813,8 +7972,14 @@
       <c r="E188" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>538</v>
       </c>
@@ -6830,8 +7995,14 @@
       <c r="E189" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>539</v>
       </c>
@@ -6847,8 +8018,14 @@
       <c r="E190" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>540</v>
       </c>
@@ -6864,8 +8041,14 @@
       <c r="E191" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>541</v>
       </c>
@@ -6881,8 +8064,14 @@
       <c r="E192" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>542</v>
       </c>
@@ -6898,8 +8087,14 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>543</v>
       </c>
@@ -6915,8 +8110,14 @@
       <c r="E194" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>544</v>
       </c>
@@ -6932,8 +8133,14 @@
       <c r="E195" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>545</v>
       </c>
@@ -6949,8 +8156,14 @@
       <c r="E196" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>546</v>
       </c>
@@ -6966,8 +8179,14 @@
       <c r="E197" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>547</v>
       </c>
@@ -6983,8 +8202,14 @@
       <c r="E198" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>548</v>
       </c>
@@ -7000,8 +8225,14 @@
       <c r="E199" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>549</v>
       </c>
@@ -7017,8 +8248,14 @@
       <c r="E200" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>550</v>
       </c>
@@ -7034,8 +8271,14 @@
       <c r="E201" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>551</v>
       </c>
@@ -7051,8 +8294,14 @@
       <c r="E202" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>552</v>
       </c>
@@ -7068,8 +8317,14 @@
       <c r="E203" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>553</v>
       </c>
@@ -7085,8 +8340,14 @@
       <c r="E204" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>554</v>
       </c>
@@ -7102,8 +8363,14 @@
       <c r="E205" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>555</v>
       </c>
@@ -7119,8 +8386,14 @@
       <c r="E206" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>556</v>
       </c>
@@ -7136,8 +8409,14 @@
       <c r="E207" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>557</v>
       </c>
@@ -7153,8 +8432,14 @@
       <c r="E208" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>558</v>
       </c>
@@ -7170,8 +8455,14 @@
       <c r="E209" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>559</v>
       </c>
@@ -7187,8 +8478,14 @@
       <c r="E210" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>560</v>
       </c>
@@ -7204,8 +8501,14 @@
       <c r="E211" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>561</v>
       </c>
@@ -7221,8 +8524,14 @@
       <c r="E212" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>562</v>
       </c>
@@ -7238,8 +8547,14 @@
       <c r="E213" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>563</v>
       </c>
@@ -7255,8 +8570,14 @@
       <c r="E214" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>564</v>
       </c>
@@ -7272,8 +8593,14 @@
       <c r="E215" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>565</v>
       </c>
@@ -7289,8 +8616,14 @@
       <c r="E216" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>566</v>
       </c>
@@ -7306,8 +8639,14 @@
       <c r="E217" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>567</v>
       </c>
@@ -7323,8 +8662,14 @@
       <c r="E218" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>568</v>
       </c>
@@ -7340,8 +8685,14 @@
       <c r="E219" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>569</v>
       </c>
@@ -7357,8 +8708,14 @@
       <c r="E220" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>570</v>
       </c>
@@ -7374,8 +8731,14 @@
       <c r="E221" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>571</v>
       </c>
@@ -7391,8 +8754,14 @@
       <c r="E222" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>572</v>
       </c>
@@ -7408,8 +8777,14 @@
       <c r="E223" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>573</v>
       </c>
@@ -7425,8 +8800,14 @@
       <c r="E224" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>574</v>
       </c>
@@ -7442,8 +8823,14 @@
       <c r="E225" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>575</v>
       </c>
@@ -7459,8 +8846,14 @@
       <c r="E226" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>576</v>
       </c>
@@ -7476,8 +8869,14 @@
       <c r="E227" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>577</v>
       </c>
@@ -7493,8 +8892,14 @@
       <c r="E228" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>578</v>
       </c>
@@ -7510,8 +8915,14 @@
       <c r="E229" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>579</v>
       </c>
@@ -7527,8 +8938,14 @@
       <c r="E230" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>580</v>
       </c>
@@ -7544,8 +8961,14 @@
       <c r="E231" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>581</v>
       </c>
@@ -7561,8 +8984,14 @@
       <c r="E232" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>582</v>
       </c>
@@ -7578,8 +9007,14 @@
       <c r="E233" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>583</v>
       </c>
@@ -7595,8 +9030,14 @@
       <c r="E234" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>584</v>
       </c>
@@ -7612,8 +9053,14 @@
       <c r="E235" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>585</v>
       </c>
@@ -7629,8 +9076,14 @@
       <c r="E236" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>586</v>
       </c>
@@ -7646,8 +9099,14 @@
       <c r="E237" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>587</v>
       </c>
@@ -7663,8 +9122,14 @@
       <c r="E238" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>588</v>
       </c>
@@ -7680,8 +9145,14 @@
       <c r="E239" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>589</v>
       </c>
@@ -7697,8 +9168,14 @@
       <c r="E240" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>590</v>
       </c>
@@ -7714,8 +9191,14 @@
       <c r="E241" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>591</v>
       </c>
@@ -7731,8 +9214,14 @@
       <c r="E242" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>592</v>
       </c>
@@ -7748,8 +9237,14 @@
       <c r="E243" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>593</v>
       </c>
@@ -7765,8 +9260,14 @@
       <c r="E244" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>594</v>
       </c>
@@ -7782,8 +9283,14 @@
       <c r="E245" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>595</v>
       </c>
@@ -7799,8 +9306,14 @@
       <c r="E246" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>596</v>
       </c>
@@ -7816,8 +9329,14 @@
       <c r="E247" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>597</v>
       </c>
@@ -7833,8 +9352,14 @@
       <c r="E248" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>598</v>
       </c>
@@ -7850,8 +9375,14 @@
       <c r="E249" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>599</v>
       </c>
@@ -7867,8 +9398,14 @@
       <c r="E250" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>600</v>
       </c>
@@ -7884,8 +9421,14 @@
       <c r="E251" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>601</v>
       </c>
@@ -7901,8 +9444,14 @@
       <c r="E252" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>602</v>
       </c>
@@ -7918,8 +9467,14 @@
       <c r="E253" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>603</v>
       </c>
@@ -7935,8 +9490,14 @@
       <c r="E254" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>604</v>
       </c>
@@ -7952,8 +9513,14 @@
       <c r="E255" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>605</v>
       </c>
@@ -7969,8 +9536,14 @@
       <c r="E256" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>606</v>
       </c>
@@ -7986,8 +9559,14 @@
       <c r="E257" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>607</v>
       </c>
@@ -8003,8 +9582,14 @@
       <c r="E258" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>608</v>
       </c>
@@ -8020,8 +9605,14 @@
       <c r="E259" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>609</v>
       </c>
@@ -8037,8 +9628,14 @@
       <c r="E260" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>610</v>
       </c>
@@ -8054,8 +9651,14 @@
       <c r="E261" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>611</v>
       </c>
@@ -8071,8 +9674,14 @@
       <c r="E262" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>612</v>
       </c>
@@ -8088,8 +9697,14 @@
       <c r="E263" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>613</v>
       </c>
@@ -8105,8 +9720,14 @@
       <c r="E264" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>614</v>
       </c>
@@ -8122,8 +9743,14 @@
       <c r="E265" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>615</v>
       </c>
@@ -8139,8 +9766,14 @@
       <c r="E266" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>616</v>
       </c>
@@ -8156,8 +9789,14 @@
       <c r="E267" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>617</v>
       </c>
@@ -8173,8 +9812,14 @@
       <c r="E268" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>618</v>
       </c>
@@ -8190,8 +9835,14 @@
       <c r="E269" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>619</v>
       </c>
@@ -8207,8 +9858,14 @@
       <c r="E270" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>620</v>
       </c>
@@ -8224,8 +9881,14 @@
       <c r="E271" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>621</v>
       </c>
@@ -8241,8 +9904,14 @@
       <c r="E272" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>622</v>
       </c>
@@ -8258,8 +9927,14 @@
       <c r="E273" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>623</v>
       </c>
@@ -8275,8 +9950,14 @@
       <c r="E274" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>624</v>
       </c>
@@ -8292,8 +9973,14 @@
       <c r="E275" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>625</v>
       </c>
@@ -8309,8 +9996,14 @@
       <c r="E276" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>626</v>
       </c>
@@ -8326,8 +10019,14 @@
       <c r="E277" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>627</v>
       </c>
@@ -8343,8 +10042,14 @@
       <c r="E278" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>628</v>
       </c>
@@ -8360,8 +10065,14 @@
       <c r="E279" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>629</v>
       </c>
@@ -8377,8 +10088,14 @@
       <c r="E280" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>630</v>
       </c>
@@ -8394,8 +10111,14 @@
       <c r="E281" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>631</v>
       </c>
@@ -8411,8 +10134,14 @@
       <c r="E282" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>632</v>
       </c>
@@ -8428,8 +10157,14 @@
       <c r="E283" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>633</v>
       </c>
@@ -8445,8 +10180,14 @@
       <c r="E284" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>634</v>
       </c>
@@ -8462,8 +10203,14 @@
       <c r="E285" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>635</v>
       </c>
@@ -8479,8 +10226,14 @@
       <c r="E286" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>636</v>
       </c>
@@ -8496,8 +10249,14 @@
       <c r="E287" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>637</v>
       </c>
@@ -8513,8 +10272,14 @@
       <c r="E288" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>638</v>
       </c>
@@ -8530,8 +10295,14 @@
       <c r="E289" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>639</v>
       </c>
@@ -8547,8 +10318,14 @@
       <c r="E290" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>640</v>
       </c>
@@ -8564,8 +10341,14 @@
       <c r="E291" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>641</v>
       </c>
@@ -8581,8 +10364,14 @@
       <c r="E292" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>642</v>
       </c>
@@ -8598,8 +10387,14 @@
       <c r="E293" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>643</v>
       </c>
@@ -8615,8 +10410,14 @@
       <c r="E294" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>644</v>
       </c>
@@ -8632,8 +10433,14 @@
       <c r="E295" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>645</v>
       </c>
@@ -8649,8 +10456,14 @@
       <c r="E296" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>646</v>
       </c>
@@ -8666,8 +10479,14 @@
       <c r="E297" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>647</v>
       </c>
@@ -8683,8 +10502,14 @@
       <c r="E298" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>648</v>
       </c>
@@ -8700,8 +10525,14 @@
       <c r="E299" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>649</v>
       </c>
@@ -8717,8 +10548,14 @@
       <c r="E300" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>650</v>
       </c>
@@ -8734,8 +10571,14 @@
       <c r="E301" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>651</v>
       </c>
@@ -8751,8 +10594,14 @@
       <c r="E302" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>652</v>
       </c>
@@ -8768,8 +10617,14 @@
       <c r="E303" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>653</v>
       </c>
@@ -8785,8 +10640,14 @@
       <c r="E304" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>654</v>
       </c>
@@ -8802,8 +10663,14 @@
       <c r="E305" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>655</v>
       </c>
@@ -8819,8 +10686,14 @@
       <c r="E306" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>656</v>
       </c>
@@ -8836,8 +10709,14 @@
       <c r="E307" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>657</v>
       </c>
@@ -8853,8 +10732,14 @@
       <c r="E308" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>658</v>
       </c>
@@ -8870,8 +10755,14 @@
       <c r="E309" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="F309" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>659</v>
       </c>
@@ -8887,8 +10778,14 @@
       <c r="E310" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="F310" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>660</v>
       </c>
@@ -8904,8 +10801,14 @@
       <c r="E311" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="F311" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>661</v>
       </c>
@@ -8921,8 +10824,14 @@
       <c r="E312" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="F312" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>662</v>
       </c>
@@ -8938,8 +10847,14 @@
       <c r="E313" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="F313" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>663</v>
       </c>
@@ -8955,8 +10870,14 @@
       <c r="E314" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="F314" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>664</v>
       </c>
@@ -8972,8 +10893,14 @@
       <c r="E315" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="F315" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>665</v>
       </c>
@@ -8989,8 +10916,14 @@
       <c r="E316" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="F316" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>666</v>
       </c>
@@ -9006,8 +10939,14 @@
       <c r="E317" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="F317" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>667</v>
       </c>
@@ -9023,8 +10962,14 @@
       <c r="E318" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="F318" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>668</v>
       </c>
@@ -9040,8 +10985,14 @@
       <c r="E319" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="F319" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>669</v>
       </c>
@@ -9057,8 +11008,14 @@
       <c r="E320" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="F320" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>670</v>
       </c>
@@ -9074,8 +11031,14 @@
       <c r="E321" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="F321" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>671</v>
       </c>
@@ -9091,8 +11054,14 @@
       <c r="E322" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="F322" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>672</v>
       </c>
@@ -9108,8 +11077,14 @@
       <c r="E323" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="F323" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>673</v>
       </c>
@@ -9125,8 +11100,14 @@
       <c r="E324" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="F324" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>674</v>
       </c>
@@ -9142,8 +11123,14 @@
       <c r="E325" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="F325" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>675</v>
       </c>
@@ -9159,8 +11146,14 @@
       <c r="E326" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="F326" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>676</v>
       </c>
@@ -9176,8 +11169,14 @@
       <c r="E327" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="F327" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>677</v>
       </c>
@@ -9193,8 +11192,14 @@
       <c r="E328" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="F328" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>678</v>
       </c>
@@ -9210,8 +11215,14 @@
       <c r="E329" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="F329" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -9227,8 +11238,14 @@
       <c r="E330" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="F330" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>680</v>
       </c>
@@ -9244,8 +11261,14 @@
       <c r="E331" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="F331" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>681</v>
       </c>
@@ -9261,8 +11284,14 @@
       <c r="E332" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="F332" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>682</v>
       </c>
@@ -9278,8 +11307,14 @@
       <c r="E333" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="F333" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>683</v>
       </c>
@@ -9295,8 +11330,14 @@
       <c r="E334" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="F334" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>684</v>
       </c>
@@ -9312,8 +11353,14 @@
       <c r="E335" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="F335" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>685</v>
       </c>
@@ -9329,8 +11376,14 @@
       <c r="E336" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="F336" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>686</v>
       </c>
@@ -9346,8 +11399,14 @@
       <c r="E337" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="F337" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>687</v>
       </c>
@@ -9363,8 +11422,14 @@
       <c r="E338" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>688</v>
       </c>
@@ -9380,8 +11445,14 @@
       <c r="E339" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="F339" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>689</v>
       </c>
@@ -9397,8 +11468,14 @@
       <c r="E340" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="F340" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>690</v>
       </c>
@@ -9414,8 +11491,14 @@
       <c r="E341" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="F341" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>691</v>
       </c>
@@ -9431,8 +11514,14 @@
       <c r="E342" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="F342" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>692</v>
       </c>
@@ -9448,8 +11537,14 @@
       <c r="E343" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="F343" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>693</v>
       </c>
@@ -9465,8 +11560,14 @@
       <c r="E344" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="F344" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>694</v>
       </c>
@@ -9482,8 +11583,14 @@
       <c r="E345" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="F345" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>695</v>
       </c>
@@ -9499,8 +11606,14 @@
       <c r="E346" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="F346" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>696</v>
       </c>
@@ -9515,6 +11628,118 @@
       </c>
       <c r="E347" t="s">
         <v>352</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBEE4FC-B5D7-1B48-8D4F-FEEAA7DC170F}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
